--- a/data/trans_orig/P14B23_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>7601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3232</v>
+        <v>3403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15143</v>
+        <v>14845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02587317000910853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01100383214503552</v>
+        <v>0.01158456455619282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05154926061094784</v>
+        <v>0.05053515710889132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -763,19 +763,19 @@
         <v>20012</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11859</v>
+        <v>12797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31937</v>
+        <v>33340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06955299485101174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04121517983979083</v>
+        <v>0.04447655673632598</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1109989769874659</v>
+        <v>0.1158751729198106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -784,19 +784,19 @@
         <v>27613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17644</v>
+        <v>18424</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40487</v>
+        <v>40528</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04748641910768229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03034276206803384</v>
+        <v>0.03168434854870635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06962610730938651</v>
+        <v>0.06969788806220846</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>286160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278618</v>
+        <v>278916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290529</v>
+        <v>290358</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9741268299908915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484507393890511</v>
+        <v>0.9494648428911086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9889961678549645</v>
+        <v>0.9884154354438072</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -834,19 +834,19 @@
         <v>267714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255789</v>
+        <v>254386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275867</v>
+        <v>274929</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9304470051489883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8890010230125344</v>
+        <v>0.8841248270801895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9587848201602092</v>
+        <v>0.955523443263674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>518</v>
@@ -855,19 +855,19 @@
         <v>553874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541000</v>
+        <v>540959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563843</v>
+        <v>563063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9525135808923177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9303738926906134</v>
+        <v>0.9303021119377916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9696572379319661</v>
+        <v>0.9683156514512937</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>5356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2102</v>
+        <v>2089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11871</v>
+        <v>11653</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01065654164158892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00418240056766511</v>
+        <v>0.004156375479431371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02362108670160349</v>
+        <v>0.02318723997468775</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -980,19 +980,19 @@
         <v>21772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14297</v>
+        <v>13699</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32783</v>
+        <v>33185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04162195306103898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02733143628994842</v>
+        <v>0.02618965826941632</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06267171056474703</v>
+        <v>0.06344130043505009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1001,19 +1001,19 @@
         <v>27127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18249</v>
+        <v>18621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38926</v>
+        <v>39356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02644883280013614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01779264824821718</v>
+        <v>0.0181547439404273</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03795263618261675</v>
+        <v>0.03837114403138325</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>497219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490704</v>
+        <v>490922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500473</v>
+        <v>500486</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9893434583584111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9763789132983964</v>
+        <v>0.9768127600253123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958175994323349</v>
+        <v>0.9958436245205686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>464</v>
@@ -1051,19 +1051,19 @@
         <v>501312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490301</v>
+        <v>489899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>508787</v>
+        <v>509385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.958378046938961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.937328289435253</v>
+        <v>0.93655869956495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9726685637100516</v>
+        <v>0.9738103417305837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>934</v>
@@ -1072,19 +1072,19 @@
         <v>998532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>986733</v>
+        <v>986303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1007410</v>
+        <v>1007038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9735511671998639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9620473638173839</v>
+        <v>0.9616288559686171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9822073517517834</v>
+        <v>0.9818452560595727</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>13933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7163</v>
+        <v>7804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22890</v>
+        <v>23320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04142819771653428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02130025504529498</v>
+        <v>0.02320532859224224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06806359206885139</v>
+        <v>0.06934010373055632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1210,19 +1210,19 @@
         <v>13933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7541</v>
+        <v>8240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23232</v>
+        <v>23922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02127535348339897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01151548982704479</v>
+        <v>0.01258301338854718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03547598749297388</v>
+        <v>0.03652966014220648</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>322376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313419</v>
+        <v>312989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329146</v>
+        <v>328505</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9585718022834657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9319364079311486</v>
+        <v>0.9306598962694435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.978699744954705</v>
+        <v>0.9767946714077577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -1273,19 +1273,19 @@
         <v>640941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631642</v>
+        <v>630952</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647333</v>
+        <v>646634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9787246465166011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9645240125070262</v>
+        <v>0.9634703398577937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9884845101729552</v>
+        <v>0.9874169866114528</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>4991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1872</v>
+        <v>1904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11175</v>
+        <v>10620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01349152859321289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00506014785534198</v>
+        <v>0.005145895953297122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03020552942820326</v>
+        <v>0.02870647191392018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1398,19 +1398,19 @@
         <v>11446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6156</v>
+        <v>6026</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19407</v>
+        <v>19461</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02955573306048607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01589450890999549</v>
+        <v>0.01556019793064096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05011058059358662</v>
+        <v>0.05024951331311201</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1419,19 +1419,19 @@
         <v>16438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9396</v>
+        <v>10082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26743</v>
+        <v>28035</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0217073331065356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01240855613185602</v>
+        <v>0.01331355780914934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03531610831738336</v>
+        <v>0.03702233357099721</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>364973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358789</v>
+        <v>359344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368092</v>
+        <v>368060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9865084714067871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9697944705717959</v>
+        <v>0.9712935280860798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994939852144658</v>
+        <v>0.9948541040467028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>347</v>
@@ -1469,19 +1469,19 @@
         <v>375837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367876</v>
+        <v>367822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381127</v>
+        <v>381257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9704442669395139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9498894194064134</v>
+        <v>0.949750486686888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841054910900046</v>
+        <v>0.984439802069359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -1490,19 +1490,19 @@
         <v>740809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730504</v>
+        <v>729212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747851</v>
+        <v>747165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9782926668934644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9646838916826179</v>
+        <v>0.962977666429003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987591443868144</v>
+        <v>0.9866864421908508</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>7662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3713</v>
+        <v>3074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14283</v>
+        <v>14673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03627696642614944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01757810457161279</v>
+        <v>0.01455505334450849</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06762337390966038</v>
+        <v>0.06946600201274088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1615,19 +1615,19 @@
         <v>13238</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7069</v>
+        <v>7217</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21858</v>
+        <v>21502</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06056054175515609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03234134060369573</v>
+        <v>0.03301698736046232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09999524536820903</v>
+        <v>0.09836613846199936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1636,19 +1636,19 @@
         <v>20900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12864</v>
+        <v>13330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31489</v>
+        <v>31035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04862683869922364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02993074945539502</v>
+        <v>0.03101452987943207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0732633777720377</v>
+        <v>0.07220618910439477</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>203559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196938</v>
+        <v>196548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207508</v>
+        <v>208147</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9637230335738506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9323766260903396</v>
+        <v>0.9305339979872591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824218954283872</v>
+        <v>0.9854449466554915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -1686,19 +1686,19 @@
         <v>205349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196729</v>
+        <v>197085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211518</v>
+        <v>211370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9394394582448439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9000047546317914</v>
+        <v>0.9016338615380011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9676586593963045</v>
+        <v>0.9669830126395377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>414</v>
@@ -1707,19 +1707,19 @@
         <v>408908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398319</v>
+        <v>398773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>416944</v>
+        <v>416478</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9513731613007763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9267366222279619</v>
+        <v>0.9277938108956053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9700692505446049</v>
+        <v>0.9689854701205681</v>
       </c>
     </row>
     <row r="18">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5527</v>
+        <v>5601</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006077417819132923</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02100509004682767</v>
+        <v>0.02128689271524458</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1832,19 +1832,19 @@
         <v>21712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13377</v>
+        <v>13339</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32680</v>
+        <v>32318</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07949913087582142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04897876276408044</v>
+        <v>0.04884034493277831</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.119657277816871</v>
+        <v>0.1183325656872469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1853,19 +1853,19 @@
         <v>23312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15291</v>
+        <v>15331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34796</v>
+        <v>37359</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04347232681065083</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02851550289181073</v>
+        <v>0.02858937288455901</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06488903498354728</v>
+        <v>0.06966904909933071</v>
       </c>
     </row>
     <row r="20">
@@ -1882,7 +1882,7 @@
         <v>261524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257596</v>
+        <v>257522</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -1891,7 +1891,7 @@
         <v>0.993922582180867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9789949099531724</v>
+        <v>0.9787131072847556</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1903,19 +1903,19 @@
         <v>251403</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240435</v>
+        <v>240797</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259738</v>
+        <v>259776</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9205008691241786</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8803427221831288</v>
+        <v>0.8816674343127534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9510212372359196</v>
+        <v>0.951159655067222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -1924,19 +1924,19 @@
         <v>512926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501442</v>
+        <v>498879</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520947</v>
+        <v>520907</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9565276731893492</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9351109650164527</v>
+        <v>0.9303309509006698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9714844971081896</v>
+        <v>0.971410627115441</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>6085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14293</v>
+        <v>14004</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009268606443462314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003081268973269145</v>
+        <v>0.003033793385289832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02176965974981474</v>
+        <v>0.02132929045302323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2049,19 +2049,19 @@
         <v>19279</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11721</v>
+        <v>11595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29209</v>
+        <v>30563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02788854639360761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01695564423344531</v>
+        <v>0.01677300120094166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04225333449259133</v>
+        <v>0.04421091669733972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2070,19 +2070,19 @@
         <v>25365</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15104</v>
+        <v>16711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38254</v>
+        <v>37930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0188185071744973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01120597761167469</v>
+        <v>0.01239848022952493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02838112617721645</v>
+        <v>0.02814090847913019</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>650473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>642265</v>
+        <v>642554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654535</v>
+        <v>654566</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9907313935565377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9782303402501853</v>
+        <v>0.9786707095469767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9969187310267308</v>
+        <v>0.9969662066147101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>629</v>
@@ -2120,19 +2120,19 @@
         <v>672015</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>662085</v>
+        <v>660731</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>679573</v>
+        <v>679699</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9721114536063924</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9577466655074086</v>
+        <v>0.9557890833026605</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9830443557665547</v>
+        <v>0.9832269987990586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1204</v>
@@ -2141,19 +2141,19 @@
         <v>1322487</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1309598</v>
+        <v>1309922</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1332748</v>
+        <v>1331141</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9811814928255027</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9716188738227842</v>
+        <v>0.9718590915208697</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9887940223883257</v>
+        <v>0.9876015197704751</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>13211</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7547</v>
+        <v>7745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21610</v>
+        <v>21952</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0169683715253434</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009693524228502936</v>
+        <v>0.009947021354369251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02775558481159786</v>
+        <v>0.02819506893826453</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2266,19 +2266,19 @@
         <v>33571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23696</v>
+        <v>23996</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48674</v>
+        <v>46901</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0406345205348563</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02868152302152271</v>
+        <v>0.0290446841279752</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05891565199416482</v>
+        <v>0.05676977287709435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2287,19 +2287,19 @@
         <v>46782</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33346</v>
+        <v>35858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61291</v>
+        <v>63334</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02915232004735525</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02077964365279915</v>
+        <v>0.0223446132082319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0381937172766515</v>
+        <v>0.03946683711384509</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>765372</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756973</v>
+        <v>756631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771036</v>
+        <v>770838</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9830316284746566</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9722444151884021</v>
+        <v>0.9718049310617355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.990306475771497</v>
+        <v>0.9900529786456307</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>727</v>
@@ -2337,19 +2337,19 @@
         <v>792596</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>777493</v>
+        <v>779266</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>802471</v>
+        <v>802171</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9593654794651437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9410843480058353</v>
+        <v>0.9432302271229055</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9713184769784774</v>
+        <v>0.9709553158720248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1463</v>
@@ -2358,19 +2358,19 @@
         <v>1557968</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1543459</v>
+        <v>1541416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1571404</v>
+        <v>1568892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9708476799526448</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.961806282723348</v>
+        <v>0.9605331628861548</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9792203563472008</v>
+        <v>0.9776553867917681</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>46506</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01370095817632108</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>139</v>
@@ -2483,19 +2483,19 @@
         <v>154963</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04373091245338123</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>185</v>
@@ -2504,19 +2504,19 @@
         <v>201469</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02903886460205626</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>3347844</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3333462</v>
+        <v>3333490</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3360730</v>
+        <v>3360498</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9862990418236789</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9820618642260737</v>
+        <v>0.982070214667257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9900953649023807</v>
+        <v>0.9900271017538295</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3198</v>
@@ -2554,19 +2554,19 @@
         <v>3388602</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3361204</v>
+        <v>3364233</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3414191</v>
+        <v>3411813</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9562690875466188</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9485375165807258</v>
+        <v>0.9493923072198276</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9634904270212851</v>
+        <v>0.9628192982063862</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6383</v>
@@ -2575,19 +2575,19 @@
         <v>6736446</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6707511</v>
+        <v>6706170</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6763192</v>
+        <v>6763219</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9709611353979437</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9667906023326226</v>
+        <v>0.9665973714042229</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9748161536588987</v>
+        <v>0.9748201693076668</v>
       </c>
     </row>
     <row r="30">
@@ -2923,19 +2923,19 @@
         <v>4327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01357039787469156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2944,19 +2944,19 @@
         <v>11467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7107</v>
+        <v>7692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16786</v>
+        <v>17652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03628036057083103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02248746186426959</v>
+        <v>0.02433693049702287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05310846263765946</v>
+        <v>0.05584939390902607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2965,19 +2965,19 @@
         <v>15794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10514</v>
+        <v>11096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22119</v>
+        <v>22793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02487557733447126</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01655997947385893</v>
+        <v>0.01747604424680421</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03483752689948933</v>
+        <v>0.0359002005578619</v>
       </c>
     </row>
     <row r="5">
@@ -2994,19 +2994,19 @@
         <v>314518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308966</v>
+        <v>309021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317181</v>
+        <v>317191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864296021253085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9690162929831225</v>
+        <v>0.9691873278203332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947806393759704</v>
+        <v>0.9948122862818011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>515</v>
@@ -3015,19 +3015,19 @@
         <v>304594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299275</v>
+        <v>298409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308954</v>
+        <v>308369</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9637196394291691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9468915373623404</v>
+        <v>0.944150606090974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9775125381357306</v>
+        <v>0.9756630695029775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>841</v>
@@ -3036,19 +3036,19 @@
         <v>619112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>612787</v>
+        <v>612113</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>624392</v>
+        <v>623810</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9751244226655288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9651624731005106</v>
+        <v>0.9640997994421381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.983440020526141</v>
+        <v>0.982523955753196</v>
       </c>
     </row>
     <row r="6">
@@ -3140,19 +3140,19 @@
         <v>21298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12386</v>
+        <v>12549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31931</v>
+        <v>32767</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04021101345579738</v>
+        <v>0.04021101345579737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02338447222683171</v>
+        <v>0.02369175502513341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06028576224095303</v>
+        <v>0.06186445535239535</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -3161,19 +3161,19 @@
         <v>50207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40132</v>
+        <v>40091</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62852</v>
+        <v>63306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09211644521713618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0736307147236878</v>
+        <v>0.07355583748685049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1153160065057604</v>
+        <v>0.1161497900108195</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -3182,19 +3182,19 @@
         <v>71505</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57774</v>
+        <v>57605</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86219</v>
+        <v>88615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06653517673745905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05375865206123823</v>
+        <v>0.05360112408072677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08022608799641029</v>
+        <v>0.08245533657584976</v>
       </c>
     </row>
     <row r="8">
@@ -3211,19 +3211,19 @@
         <v>508362</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>497729</v>
+        <v>496893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>517274</v>
+        <v>517111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9597889865442025</v>
+        <v>0.9597889865442026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9397142377590469</v>
+        <v>0.9381355446476045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.976615527773168</v>
+        <v>0.9763082449748667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>643</v>
@@ -3232,19 +3232,19 @@
         <v>494834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482189</v>
+        <v>481735</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504909</v>
+        <v>504950</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9078835547828639</v>
+        <v>0.9078835547828638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8846839934942397</v>
+        <v>0.8838502099891805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9263692852763122</v>
+        <v>0.9264441625131495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1006</v>
@@ -3253,19 +3253,19 @@
         <v>1003196</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>988482</v>
+        <v>986086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1016927</v>
+        <v>1017096</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.933464823262541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9197739120035903</v>
+        <v>0.9175446634241502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9462413479387619</v>
+        <v>0.9463988759192734</v>
       </c>
     </row>
     <row r="9">
@@ -3357,19 +3357,19 @@
         <v>13532</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7825</v>
+        <v>7608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21854</v>
+        <v>22434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04282383491655729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02476295269252141</v>
+        <v>0.02407706738356531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0691608991942395</v>
+        <v>0.07099588169281235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3378,19 +3378,19 @@
         <v>17816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12161</v>
+        <v>12569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24517</v>
+        <v>24501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04999135474842471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0341249601296741</v>
+        <v>0.03526819920965984</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06879426186673936</v>
+        <v>0.06874893986231158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3399,19 +3399,19 @@
         <v>31348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23532</v>
+        <v>23053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41680</v>
+        <v>41862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04662286254712333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03499866177710265</v>
+        <v>0.034286142157757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06198988788241114</v>
+        <v>0.06226033175516012</v>
       </c>
     </row>
     <row r="11">
@@ -3428,19 +3428,19 @@
         <v>302461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294139</v>
+        <v>293559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308168</v>
+        <v>308385</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9571761650834427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9308391008057605</v>
+        <v>0.9290041183071877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9752370473074784</v>
+        <v>0.9759229326164348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -3449,19 +3449,19 @@
         <v>338565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331864</v>
+        <v>331880</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344220</v>
+        <v>343812</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9500086452515755</v>
+        <v>0.9500086452515752</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9312057381332607</v>
+        <v>0.9312510601376883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9658750398703257</v>
+        <v>0.96473180079034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>849</v>
@@ -3470,19 +3470,19 @@
         <v>641027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630695</v>
+        <v>630513</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648843</v>
+        <v>649322</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9533771374528769</v>
+        <v>0.9533771374528766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9380101121175889</v>
+        <v>0.9377396682448401</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9650013382228976</v>
+        <v>0.9657138578422432</v>
       </c>
     </row>
     <row r="12">
@@ -3574,19 +3574,19 @@
         <v>15809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8932</v>
+        <v>8713</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27150</v>
+        <v>27228</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04245174044080785</v>
+        <v>0.04245174044080784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02398543239154154</v>
+        <v>0.02339604826590056</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07290450357144107</v>
+        <v>0.07311382634351332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3595,19 +3595,19 @@
         <v>20330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14869</v>
+        <v>14400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29464</v>
+        <v>28202</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0481794285380899</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03523672646907536</v>
+        <v>0.03412627346482576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06982585908775539</v>
+        <v>0.06683593855076093</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3616,19 +3616,19 @@
         <v>36139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27123</v>
+        <v>26701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51090</v>
+        <v>50562</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04549424476540539</v>
+        <v>0.0454942447654054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03414382109874421</v>
+        <v>0.03361292434835778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06431544896410159</v>
+        <v>0.06365055501966402</v>
       </c>
     </row>
     <row r="14">
@@ -3645,19 +3645,19 @@
         <v>356596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345255</v>
+        <v>345177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363473</v>
+        <v>363692</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9575482595591921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9270954964285594</v>
+        <v>0.9268861736564868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9760145676084586</v>
+        <v>0.9766039517340995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -3666,19 +3666,19 @@
         <v>401631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>392497</v>
+        <v>393759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>407092</v>
+        <v>407561</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9518205714619102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9301741409122448</v>
+        <v>0.9331640614492389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9647632735309248</v>
+        <v>0.9658737265351741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>839</v>
@@ -3687,19 +3687,19 @@
         <v>758227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743276</v>
+        <v>743804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767243</v>
+        <v>767665</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9545057552345947</v>
+        <v>0.9545057552345948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9356845510358986</v>
+        <v>0.9363494449803359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.965856178901256</v>
+        <v>0.9663870756516422</v>
       </c>
     </row>
     <row r="15">
@@ -3791,19 +3791,19 @@
         <v>2390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6160</v>
+        <v>5656</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01165194567799439</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002975589929715411</v>
+        <v>0.002989690366926563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0300373137210868</v>
+        <v>0.02757929791183967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3812,19 +3812,19 @@
         <v>7904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4936</v>
+        <v>5115</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12077</v>
+        <v>11955</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03484839427985297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02176015200695988</v>
+        <v>0.02255059267969948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05324532424064848</v>
+        <v>0.05270450029780412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3833,19 +3833,19 @@
         <v>10294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6852</v>
+        <v>6536</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15193</v>
+        <v>15253</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02383394745074679</v>
+        <v>0.02383394745074678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01586342966834627</v>
+        <v>0.01513199901852508</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03517543290258782</v>
+        <v>0.03531497358647432</v>
       </c>
     </row>
     <row r="17">
@@ -3862,19 +3862,19 @@
         <v>202694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198924</v>
+        <v>199428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204474</v>
+        <v>204471</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9883480543220053</v>
+        <v>0.9883480543220057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9699626862789135</v>
+        <v>0.9724207020881604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970244100702846</v>
+        <v>0.9970103096330735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -3883,19 +3883,19 @@
         <v>218919</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214746</v>
+        <v>214868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221887</v>
+        <v>221708</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.965151605720147</v>
+        <v>0.9651516057201469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9467546757593519</v>
+        <v>0.9472954997021958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9782398479930402</v>
+        <v>0.9774494073203006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>746</v>
@@ -3904,19 +3904,19 @@
         <v>421613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>416714</v>
+        <v>416654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425055</v>
+        <v>425371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9761660525492531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9648245670974119</v>
+        <v>0.9646850264135256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9841365703316536</v>
+        <v>0.9848680009814751</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>11999</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7396</v>
+        <v>7422</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18952</v>
+        <v>19516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04432329648557023</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02732251579808949</v>
+        <v>0.02741682152772425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07001083433598979</v>
+        <v>0.07209206757694349</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -4029,19 +4029,19 @@
         <v>11478</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7153</v>
+        <v>7528</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16707</v>
+        <v>16503</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04362739161906541</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02718840426686047</v>
+        <v>0.02861257960773757</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06350135092082314</v>
+        <v>0.06272414355040906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -4050,19 +4050,19 @@
         <v>23477</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17233</v>
+        <v>17093</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31075</v>
+        <v>32046</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04398030304739154</v>
+        <v>0.04398030304739155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03228296164873841</v>
+        <v>0.03202120785333168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05821419957565899</v>
+        <v>0.06003335047360561</v>
       </c>
     </row>
     <row r="20">
@@ -4079,19 +4079,19 @@
         <v>258708</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251755</v>
+        <v>251191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263311</v>
+        <v>263285</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9556767035144298</v>
+        <v>0.9556767035144299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9299891656640105</v>
+        <v>0.9279079324230567</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9726774842019105</v>
+        <v>0.9725831784722757</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>435</v>
@@ -4100,19 +4100,19 @@
         <v>251621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246392</v>
+        <v>246596</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255946</v>
+        <v>255571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9563726083809345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9364986490791768</v>
+        <v>0.9372758564495907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9728115957331396</v>
+        <v>0.9713874203922626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>788</v>
@@ -4121,19 +4121,19 @@
         <v>510329</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502731</v>
+        <v>501760</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>516573</v>
+        <v>516713</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9560196969526086</v>
+        <v>0.9560196969526085</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9417858004243412</v>
+        <v>0.939966649526394</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9677170383512617</v>
+        <v>0.9679787921466682</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>32212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21099</v>
+        <v>21560</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48365</v>
+        <v>47951</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04494376964431275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02943836026834261</v>
+        <v>0.03008147045144694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06748173567069154</v>
+        <v>0.06690336461725019</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -4246,19 +4246,19 @@
         <v>55417</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43265</v>
+        <v>43385</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69785</v>
+        <v>68317</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07197266989020082</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05619071253621822</v>
+        <v>0.05634693021709892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09063378115393272</v>
+        <v>0.08872725549135969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -4267,19 +4267,19 @@
         <v>87629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70578</v>
+        <v>70535</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>108954</v>
+        <v>108266</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05894232256721242</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04747374509783717</v>
+        <v>0.04744442602482888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07328675257563978</v>
+        <v>0.07282373763931184</v>
       </c>
     </row>
     <row r="23">
@@ -4296,19 +4296,19 @@
         <v>684503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>668350</v>
+        <v>668764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695616</v>
+        <v>695155</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9550562303556872</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9325182643293087</v>
+        <v>0.9330966353827499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9705616397316574</v>
+        <v>0.9699185295485531</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>885</v>
@@ -4317,19 +4317,19 @@
         <v>714552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>700184</v>
+        <v>701652</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>726704</v>
+        <v>726584</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9280273301097991</v>
+        <v>0.9280273301097993</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9093662188460672</v>
+        <v>0.91127274450864</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9438092874637817</v>
+        <v>0.9436530697829006</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1454</v>
@@ -4338,19 +4338,19 @@
         <v>1399055</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1377730</v>
+        <v>1378418</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1416106</v>
+        <v>1416149</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9410576774327877</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.92671324742436</v>
+        <v>0.9271762623606881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9525262549021628</v>
+        <v>0.952555573975171</v>
       </c>
     </row>
     <row r="24">
@@ -4442,19 +4442,19 @@
         <v>16013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9863</v>
+        <v>9254</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25749</v>
+        <v>24555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02006455129273726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01235817097766338</v>
+        <v>0.01159544820210864</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03226459236534554</v>
+        <v>0.03076825138400072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -4463,19 +4463,19 @@
         <v>47189</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37096</v>
+        <v>37321</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60632</v>
+        <v>60722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05681194991503988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04466105938859064</v>
+        <v>0.04493167638244398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07299713742167159</v>
+        <v>0.0731056390972695</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -4484,19 +4484,19 @@
         <v>63201</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49789</v>
+        <v>49114</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77740</v>
+        <v>77229</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03880530959758148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03056999200982776</v>
+        <v>0.03015555991676593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04773175789030459</v>
+        <v>0.04741835236829055</v>
       </c>
     </row>
     <row r="26">
@@ -4513,19 +4513,19 @@
         <v>782059</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772323</v>
+        <v>773517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788209</v>
+        <v>788818</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9799354487072627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9677354076346536</v>
+        <v>0.9692317486159994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9876418290223367</v>
+        <v>0.9884045517978914</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>996</v>
@@ -4534,19 +4534,19 @@
         <v>783420</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769977</v>
+        <v>769887</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>793513</v>
+        <v>793288</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.94318805008496</v>
+        <v>0.9431880500849602</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9270028625783285</v>
+        <v>0.9268943609027301</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9553389406114094</v>
+        <v>0.9550683236175559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1741</v>
@@ -4555,19 +4555,19 @@
         <v>1565480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1550941</v>
+        <v>1551452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1578892</v>
+        <v>1579567</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9611946904024185</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9522682421096955</v>
+        <v>0.9525816476317095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9694300079901721</v>
+        <v>0.969844440083234</v>
       </c>
     </row>
     <row r="27">
@@ -4659,19 +4659,19 @@
         <v>117579</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03333238808431482</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>344</v>
@@ -4680,19 +4680,19 @@
         <v>221808</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05946679866764727</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>462</v>
@@ -4701,19 +4701,19 @@
         <v>339387</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04676413627209071</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="29">
@@ -4730,19 +4730,19 @@
         <v>3409902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3384834</v>
+        <v>3386542</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3431300</v>
+        <v>3431178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9666676119156852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9595613507456073</v>
+        <v>0.9600455130185739</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9727337373033583</v>
+        <v>0.97269921501294</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5012</v>
@@ -4751,19 +4751,19 @@
         <v>3508137</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3483565</v>
+        <v>3484326</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3531126</v>
+        <v>3530842</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9405332013323529</v>
+        <v>0.9405332013323527</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9339455171912779</v>
+        <v>0.9341495265892348</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9466965785534835</v>
+        <v>0.9466204094568451</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8264</v>
@@ -4772,19 +4772,19 @@
         <v>6918040</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6882713</v>
+        <v>6886489</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6950166</v>
+        <v>6949537</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9532358637279094</v>
+        <v>0.9532358637279091</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9483681992878692</v>
+        <v>0.9488884924715012</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9576625746487021</v>
+        <v>0.9575758124449073</v>
       </c>
     </row>
     <row r="30">
